--- a/client/文件上传模版/周目标更新模版.xlsx
+++ b/client/文件上传模版/周目标更新模版.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="1500" windowWidth="28240" windowHeight="17440" xr2:uid="{752BAC88-3D22-6345-9E5D-6A586CA68B77}"/>
+    <workbookView windowWidth="19440" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
   <si>
     <t>序号</t>
   </si>
@@ -67,17 +80,20 @@
     <t>李欣/帅维城</t>
   </si>
   <si>
-    <t>美国H5-退出和切换页签，停留当前房间
-美国H5-侧边栏遮罩</t>
+    <t xml:space="preserve">美国H5-退出和切换页签，停留当前房间
+</t>
   </si>
   <si>
     <t>王子腾/陶俊华</t>
   </si>
   <si>
+    <t>美国H5-侧边栏遮罩</t>
+  </si>
+  <si>
     <t>美国Google提审包（A/B投放包归因接入）</t>
   </si>
   <si>
-    <t>陈苏熙/谢国良/外部</t>
+    <t>陈苏熙/谢国良</t>
   </si>
   <si>
     <t>美国H5 - Google的VIP导流到APK</t>
@@ -120,9 +136,6 @@
   </si>
   <si>
     <t>美国H5-游戏内推送破产礼包（全覆盖）</t>
-  </si>
-  <si>
-    <t>雪斌</t>
   </si>
   <si>
     <t>美国H5-细节优化 0228 （收藏效果）</t>
@@ -188,20 +201,43 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF262626"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -210,43 +246,147 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF262626"/>
-      <name val="Microsoft YaHei"/>
-    </font>
-    <font>
-      <sz val="10"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF262626"/>
-      <name val="Microsoft YaHei"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,15 +396,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCFCECF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -300,82 +628,353 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -424,7 +1023,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -457,26 +1056,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -509,23 +1091,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -667,507 +1232,506 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F1E1092-59D6-0841-9542-AE5505D0AA25}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.9990234375" defaultRowHeight="16.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="4.623046875"/>
+    <col min="1" max="1" width="4.625"/>
     <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="71.748046875" customWidth="1"/>
-    <col min="4" max="4" width="26.8740234375" customWidth="1"/>
+    <col min="3" max="3" width="71.75" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="6" t="n">
+    <row r="2" ht="18" customHeight="1" spans="1:4">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" ht="18" customHeight="1">
-      <c r="A3" s="6" t="n">
+    <row r="3" ht="18" customHeight="1" spans="1:4">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="18" customHeight="1">
-      <c r="A4" s="6" t="n">
+    <row r="4" ht="18" customHeight="1" spans="1:4">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="10" t="s">
+    <row r="5" ht="18" customHeight="1" spans="1:4">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1">
-      <c r="A6" s="6" t="n">
+    <row r="6" ht="18" customHeight="1" spans="1:4">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:4">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:4">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:4">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:4">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:4">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:4">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:4">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:4">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:4">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:4">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="C16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:4">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" ht="18" customHeight="1">
-      <c r="A8" s="6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="17" t="s">
+      <c r="B17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:4">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="B18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:4">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" ht="18" customHeight="1">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1">
-      <c r="A10" s="6" t="n">
-        <v>2</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="10" t="s">
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:4">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="B20" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:4">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" ht="18" customHeight="1">
-      <c r="A11" s="14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="13" t="s">
+      <c r="B21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:4">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="B22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:4">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" ht="18" customHeight="1">
-      <c r="A12" s="6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:4">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="B24" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:4">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" ht="18" customHeight="1">
-      <c r="A13" s="6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B25" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:4">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:4">
+      <c r="A27" s="2">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" ht="18" customHeight="1">
-      <c r="A14" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:4">
+      <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="B28" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:4">
+      <c r="A29" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="15" ht="18" customHeight="1">
-      <c r="A15" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="10" t="s">
+      <c r="B29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:4">
+      <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" ht="18" customHeight="1">
-      <c r="A16" s="6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="10" t="s">
+      <c r="B30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:4">
+      <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" ht="18" customHeight="1">
-      <c r="A17" s="6" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="B31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:4">
+      <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="D17" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" ht="18" customHeight="1">
-      <c r="A18" s="6" t="n">
+      <c r="B32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D32" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="10" t="s">
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:4">
+      <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="B33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" ht="18" customHeight="1" spans="1:4">
+      <c r="A34" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="19" ht="18" customHeight="1">
-      <c r="A19" s="6" t="n">
-        <v>9</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" ht="18" customHeight="1">
-      <c r="A20" s="8" t="n">
-        <v>10</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" ht="18" customHeight="1">
-      <c r="A21" s="8" t="n">
-        <v>11</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" ht="18" customHeight="1">
-      <c r="A22" s="6" t="n">
-        <v>12</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" ht="18" customHeight="1">
-      <c r="A23" s="12" t="n">
-        <v>13</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" ht="18" customHeight="1">
-      <c r="A24" s="12" t="n">
-        <v>14</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" ht="18" customHeight="1">
-      <c r="A25" s="12" t="n">
-        <v>15</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" ht="18" customHeight="1">
-      <c r="A26" s="6" t="n">
-        <v>21</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="27" ht="18" customHeight="1">
-      <c r="A27" s="6" t="n">
-        <v>23</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" ht="18" customHeight="1">
-      <c r="A28" s="12" t="n">
-        <v>24</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="6" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" ht="18" customHeight="1">
-      <c r="A30" s="6" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" ht="18" customHeight="1">
-      <c r="A31" s="6" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" ht="18" customHeight="1">
-      <c r="A32" s="6" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" ht="18" customHeight="1">
-      <c r="A33" s="6" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" ht="18" customHeight="1">
-      <c r="A34" s="6" t="n">
-        <v>31</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="10" t="s">
+      <c r="B34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="4" t="s">
         <v>55</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/client/文件上传模版/周目标更新模版.xlsx
+++ b/client/文件上传模版/周目标更新模版.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19440" windowHeight="17055"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="112">
   <si>
     <t>序号</t>
   </si>
@@ -41,161 +41,328 @@
     <t>研发人员</t>
   </si>
   <si>
+    <t>上线时间</t>
+  </si>
+  <si>
+    <t>项目组</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
     <t>A+</t>
   </si>
   <si>
-    <t>游戏 RTP 调整测试 - 增加 PP、PG 爽感</t>
-  </si>
-  <si>
-    <t>李欣/陈苏熙</t>
-  </si>
-  <si>
-    <t>美国H5-限制1小时IP注册量</t>
+    <t>新支付通道接入</t>
+  </si>
+  <si>
+    <t>曹远浩</t>
+  </si>
+  <si>
+    <t>游戏技术组</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>复盘迭代（事前、事中、事后，优化开发、发布流程）</t>
+  </si>
+  <si>
+    <t>陈苏熙</t>
+  </si>
+  <si>
+    <t>墨西哥分包</t>
+  </si>
+  <si>
+    <t>王子腾</t>
+  </si>
+  <si>
+    <t>巴西分包</t>
+  </si>
+  <si>
+    <t>澳大利亚-H5开发及发布</t>
+  </si>
+  <si>
+    <t>王子腾/陶俊华/帅维城/谢国良/曹方毅</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>美国H5 - 加载页和操作按钮优化</t>
+  </si>
+  <si>
+    <t>梁嘉轩</t>
+  </si>
+  <si>
+    <t>美国H5-运营后台 - Banner 配置系统</t>
+  </si>
+  <si>
+    <t>陶俊华</t>
+  </si>
+  <si>
+    <t>美国H5-部署（美国二）服务器</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>美国H5-邮箱登录MVP</t>
+  </si>
+  <si>
+    <t>美国H5-新手引导帮助（降低用户学习规则成本）</t>
+  </si>
+  <si>
+    <t>美国H5 - 商城和连续充值推荐档位</t>
+  </si>
+  <si>
+    <t>美国H5-充值活动:首次使用： BTC充值加送100% 20次野牛免费旋转</t>
+  </si>
+  <si>
+    <t>陶俊华/谢国良/曹方毅</t>
+  </si>
+  <si>
+    <t>美国H5-游戏内在线客服</t>
+  </si>
+  <si>
+    <t>巴西H5-小米巴西上架包B面风控优化</t>
+  </si>
+  <si>
+    <t>秘鲁H5-提升利润率 - 多次诱导方案</t>
+  </si>
+  <si>
+    <t>秘鲁H5-顶部下载APK + 添加 FaceBook 绑定</t>
+  </si>
+  <si>
+    <t>巴西小米冲刺2000+（上包提速）</t>
+  </si>
+  <si>
+    <t>帅维城</t>
+  </si>
+  <si>
+    <t>TW社交软件开发</t>
+  </si>
+  <si>
+    <t>UC、游戏服务Linux迁移</t>
   </si>
   <si>
     <t>谢国良</t>
   </si>
   <si>
-    <t>新支付通道接入</t>
-  </si>
-  <si>
-    <t>曹远浩</t>
-  </si>
-  <si>
-    <t>智利-TodayPay接入</t>
-  </si>
-  <si>
-    <t>美国H5-邮箱登录MVP</t>
-  </si>
-  <si>
-    <t>王子腾/谢国良/曹方毅</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>PP自研-子游戏服务部署X20</t>
-  </si>
-  <si>
-    <t>李欣/帅维城</t>
-  </si>
-  <si>
-    <t xml:space="preserve">美国H5-退出和切换页签，停留当前房间
-</t>
-  </si>
-  <si>
-    <t>王子腾/陶俊华</t>
-  </si>
-  <si>
-    <t>美国H5-侧边栏遮罩</t>
-  </si>
-  <si>
-    <t>美国Google提审包（A/B投放包归因接入）</t>
-  </si>
-  <si>
-    <t>陈苏熙/谢国良</t>
-  </si>
-  <si>
-    <t>美国H5 - Google的VIP导流到APK</t>
-  </si>
-  <si>
-    <t>梁嘉轩/曹方毅/谢国良</t>
-  </si>
-  <si>
-    <t>美国H5-弱时间给玩家发放免费转盘</t>
-  </si>
-  <si>
-    <t>陶俊华</t>
-  </si>
-  <si>
-    <t>美国H5-引擎加载页 - 优化进度条展示</t>
-  </si>
-  <si>
-    <t>梁嘉轩</t>
-  </si>
-  <si>
-    <t>美国H5-搜索功能</t>
-  </si>
-  <si>
-    <t>王子腾</t>
-  </si>
-  <si>
-    <t>美国H5-分包增加颜色配置</t>
-  </si>
-  <si>
-    <t>美国H5-游戏内互导</t>
-  </si>
-  <si>
-    <t>美国H5-前端点任何位置都关不掉问题修复</t>
-  </si>
-  <si>
-    <t>美国H5-断线重连的交互优化提示（Lua转JS的7个游戏）</t>
-  </si>
-  <si>
-    <t>帅维城</t>
-  </si>
-  <si>
-    <t>美国H5-游戏内推送破产礼包（全覆盖）</t>
-  </si>
-  <si>
-    <t>美国H5-细节优化 0228 （收藏效果）</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>美国H5-游戏记录 - 游戏内和后台</t>
-  </si>
-  <si>
-    <t>陶俊华/谢国良/曹方毅</t>
-  </si>
-  <si>
-    <t>美国H5-WhatsApp 提款失败原路返回</t>
-  </si>
-  <si>
-    <t>曹方毅</t>
+    <t>PP\PG首充风控优化重构</t>
+  </si>
+  <si>
+    <t>PP\PG子游戏服务端崩溃问题排查及子游戏优化</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>美国H5-游戏内在线客服</t>
-  </si>
-  <si>
-    <t>美国H5-断线重连 - 进入其他游戏时提示还有未完成的免费次数</t>
-  </si>
-  <si>
-    <t>美国H5-每个玩家，每日随机3个幸运房间</t>
-  </si>
-  <si>
-    <t>巴西H5-小米巴西上架包B面风控优化</t>
-  </si>
-  <si>
-    <t>墨西哥分包方案</t>
-  </si>
-  <si>
-    <t>TW社交聊天软件</t>
-  </si>
-  <si>
-    <t>巴西小米冲刺2000+（上包提速）</t>
-  </si>
-  <si>
-    <t>UC、游戏服务Linux迁移</t>
-  </si>
-  <si>
-    <t>PP\PG首充风控优化重构</t>
-  </si>
-  <si>
-    <t>PP\PG子游戏服务端崩溃问题排查及子游戏优化</t>
-  </si>
-  <si>
-    <t>运维管理后台宝塔权限系统开发</t>
-  </si>
-  <si>
-    <t>线上、客服反馈问题处理</t>
-  </si>
-  <si>
-    <t>陈苏熙/梁嘉轩/李欣</t>
+    <t>美国H5-每日充值礼包 - 充三项送转盘</t>
+  </si>
+  <si>
+    <t>美国H5-破产礼包 - 增加高金额引导和跑马灯</t>
+  </si>
+  <si>
+    <t>美国H5-尾号段不显示救济金 测数值</t>
+  </si>
+  <si>
+    <t>美国H5-弱时间送转盘 - 要求当天充值一笔</t>
+  </si>
+  <si>
+    <t>美国H5-热门游戏推荐+游戏选择细节优化</t>
+  </si>
+  <si>
+    <t>谷歌发邮件一键退订-闭环</t>
+  </si>
+  <si>
+    <t>周杭民</t>
+  </si>
+  <si>
+    <t>奇胜-技术组</t>
+  </si>
+  <si>
+    <t>破解IGT（钻石系列优先）</t>
+  </si>
+  <si>
+    <t>钱贵祥</t>
+  </si>
+  <si>
+    <t>解决PP游戏的历史查询</t>
+  </si>
+  <si>
+    <t>巴西疯传视频技术预研-疯传MVP闭环</t>
+  </si>
+  <si>
+    <t>TG裂变的系统对抗优化</t>
+  </si>
+  <si>
+    <t>TG红包统计</t>
+  </si>
+  <si>
+    <t>王子金</t>
+  </si>
+  <si>
+    <t>分包产品+其他产品的全面监控-</t>
+  </si>
+  <si>
+    <t>钱贵祥/周杭民</t>
+  </si>
+  <si>
+    <t>协助皮皮，完成小米冲刺3000+</t>
+  </si>
+  <si>
+    <t>孔祥东</t>
+  </si>
+  <si>
+    <t>A面自动化</t>
+  </si>
+  <si>
+    <t>FB评论引流的分流统计</t>
+  </si>
+  <si>
+    <t>孔祥东/王子金</t>
+  </si>
+  <si>
+    <t>(分包+其它)产品全面监控</t>
+  </si>
+  <si>
+    <t>自动化测试的工具流程实现（监控的事前部分）</t>
+  </si>
+  <si>
+    <t>游戏排序调整</t>
+  </si>
+  <si>
+    <t>张锴楠</t>
+  </si>
+  <si>
+    <t>产品组</t>
+  </si>
+  <si>
+    <t>大厅加载页添加事件收集和联系客服 游戏内操作按钮变成工具栏</t>
+  </si>
+  <si>
+    <t>商城充值和连续充值 - 根据个人生涯平均充值金额算推荐档位</t>
+  </si>
+  <si>
+    <t>USDT推荐应用 - 改为配置</t>
+  </si>
+  <si>
+    <t>张锴楠/解午刚</t>
+  </si>
+  <si>
+    <t>顶部下载APK + 添加 FaceBook 绑定</t>
+  </si>
+  <si>
+    <t>杨楠</t>
+  </si>
+  <si>
+    <t>邮箱引导 - 排查现有问题和加强转化</t>
+  </si>
+  <si>
+    <t>代理MVP</t>
+  </si>
+  <si>
+    <t>张梁/杨绍銮</t>
+  </si>
+  <si>
+    <t>投放测试拉升首充金额</t>
+  </si>
+  <si>
+    <t>提升利润率 - 多次诱导 方案</t>
+  </si>
+  <si>
+    <t>杨楠/解午刚</t>
+  </si>
+  <si>
+    <t>破产礼包 - 增加高金额引导和跑马灯</t>
+  </si>
+  <si>
+    <t>每日充值礼包 - 充三项送转盘</t>
+  </si>
+  <si>
+    <t>杨楠/左鹏</t>
+  </si>
+  <si>
+    <t>客服OA - 修复部分产品携带参数过长无法识别产品信息的问题</t>
+  </si>
+  <si>
+    <t>分包 - 主题默认配置打进包里</t>
+  </si>
+  <si>
+    <t>各国大额代付订单默认需要审核</t>
+  </si>
+  <si>
+    <t>分包 - 域名、CDN、DNS 账号配置</t>
+  </si>
+  <si>
+    <t>分包 - 部分可选数据区分国家</t>
+  </si>
+  <si>
+    <t>新手引导帮助（降低用户学习规则成本）</t>
+  </si>
+  <si>
+    <t>热门游戏推荐+游戏选择细节优化</t>
+  </si>
+  <si>
+    <t>尾号段不显示救济金 测数值</t>
+  </si>
+  <si>
+    <t>弱时间送转盘 - 要求当天充值一笔</t>
+  </si>
+  <si>
+    <t>JACKPOT 提现金额降低（20% MVP）</t>
+  </si>
+  <si>
+    <t>巴西iOS调整弹窗顺序</t>
+  </si>
+  <si>
+    <t>1.运营系统1.0开发（TG频道运营+banner）</t>
+  </si>
+  <si>
+    <t>周杭民/秦涛</t>
+  </si>
+  <si>
+    <t>鲲鹏组</t>
+  </si>
+  <si>
+    <t>2.代理后台开发</t>
+  </si>
+  <si>
+    <t>李卓浩</t>
+  </si>
+  <si>
+    <t>3.多国家分包+优化点</t>
+  </si>
+  <si>
+    <t>4.TG群分享需求：群失效方案优化</t>
+  </si>
+  <si>
+    <t>王子金/李卓浩</t>
+  </si>
+  <si>
+    <t>5.落地页开发</t>
+  </si>
+  <si>
+    <t>李卓浩/孔祥东</t>
+  </si>
+  <si>
+    <t>6.OA客服3个优化需求</t>
+  </si>
+  <si>
+    <t>李卓浩/郑燕飞</t>
+  </si>
+  <si>
+    <t>7.明德商城</t>
+  </si>
+  <si>
+    <t>李卓浩/秦涛</t>
+  </si>
+  <si>
+    <t>8.财务投余额管理</t>
+  </si>
+  <si>
+    <t>梁浩风</t>
   </si>
 </sst>
 </file>
@@ -208,7 +375,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -217,22 +384,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF262626"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -386,7 +542,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,13 +551,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCFCECF"/>
+        <fgColor rgb="FF0071C1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE4EDDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDFEBF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECECEC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAE2F6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -616,13 +790,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color rgb="FF000000"/>
       </right>
-      <top style="thin">
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
         <color rgb="FF000000"/>
       </top>
       <bottom/>
@@ -731,19 +920,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,172 +950,184 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1240,13 +1450,13 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:G72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A1" sqref="A1:G72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="4.625"/>
     <col min="2" max="2" width="29.625" customWidth="1"/>
@@ -1254,480 +1464,1660 @@
     <col min="4" max="4" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18" customHeight="1" spans="1:4">
+    <row r="1" ht="18" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:4">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="18" customHeight="1" spans="1:7">
+      <c r="A2" s="3">
+        <v>960</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="18" customHeight="1" spans="1:7">
+      <c r="A3" s="3">
+        <v>955</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="18" customHeight="1" spans="1:4">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" ht="18" customHeight="1" spans="1:4">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="18" customHeight="1" spans="1:7">
+      <c r="A4" s="3">
+        <v>975</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:4">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="G4" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" ht="18" customHeight="1" spans="1:7">
+      <c r="A5" s="3">
+        <v>956</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="18" customHeight="1" spans="1:7">
+      <c r="A6" s="3">
+        <v>884</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:7">
+      <c r="A7" s="3">
+        <v>759</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:7">
+      <c r="A8" s="3">
+        <v>1022</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:7">
+      <c r="A9" s="3">
+        <v>882</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:7">
+      <c r="A10" s="3">
+        <v>973</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:7">
+      <c r="A11" s="3">
+        <v>976</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:7">
+      <c r="A12" s="3">
+        <v>1033</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:7">
+      <c r="A13" s="3">
+        <v>966</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:7">
+      <c r="A14" s="3">
+        <v>957</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:7">
+      <c r="A15" s="3">
+        <v>962</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:7">
+      <c r="A16" s="3">
+        <v>650</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:7">
+      <c r="A17" s="3">
+        <v>981</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:7">
+      <c r="A18" s="3">
+        <v>982</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:7">
+      <c r="A19" s="3">
+        <v>983</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:7">
+      <c r="A20" s="3">
+        <v>984</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:7">
+      <c r="A21" s="3">
+        <v>985</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:7">
+      <c r="A22" s="3">
+        <v>986</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E22" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:7">
+      <c r="A23" s="3">
+        <v>987</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:4">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:4">
-      <c r="A8" s="2">
-        <v>7</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:4">
-      <c r="A9" s="2">
-        <v>8</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="E23" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:7">
+      <c r="A24" s="3">
+        <v>754</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:7">
+      <c r="A25" s="3">
+        <v>974</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="3">
+        <v>889</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="3">
+        <v>980</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="6">
+        <v>45758</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="12">
+        <v>707</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:4">
-      <c r="A10" s="2">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:4">
-      <c r="A11" s="2">
-        <v>10</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:4">
-      <c r="A12" s="2">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:4">
-      <c r="A13" s="2">
-        <v>12</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" ht="18" customHeight="1" spans="1:4">
-      <c r="A14" s="2">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="1:4">
-      <c r="A15" s="2">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:4">
-      <c r="A16" s="2">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:4">
-      <c r="A17" s="2">
-        <v>16</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:4">
-      <c r="A18" s="2">
-        <v>17</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:4">
-      <c r="A19" s="2">
-        <v>18</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:4">
-      <c r="A20" s="2">
+      <c r="C28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="14">
+        <v>45758</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:7">
+      <c r="A29" s="12">
+        <v>797</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:4">
-      <c r="A21" s="2">
-        <v>20</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:4">
-      <c r="A22" s="2">
-        <v>21</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:4">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="C29" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29" s="14">
+        <v>45758</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:7">
+      <c r="A30" s="12">
+        <v>795</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E30" s="14">
+        <v>45758</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:7">
+      <c r="A31" s="12">
+        <v>796</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" s="14">
+        <v>45758</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:7">
+      <c r="A32" s="12">
+        <v>908</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E32" s="14">
+        <v>45758</v>
+      </c>
+      <c r="F32" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:7">
+      <c r="A33" s="12">
+        <v>909</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="14">
+        <v>45758</v>
+      </c>
+      <c r="F33" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:7">
+      <c r="A34" s="12">
+        <v>696</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="14">
+        <v>45758</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:7">
+      <c r="A35" s="12">
+        <v>694</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C23" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:4">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="C35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E35" s="14">
+        <v>45758</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:7">
+      <c r="A36" s="12">
+        <v>679</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:4">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="C36" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="14">
+        <v>45758</v>
+      </c>
+      <c r="F36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:7">
+      <c r="A37" s="12">
+        <v>906</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:4">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:4">
-      <c r="A27" s="2">
-        <v>26</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:4">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="C37" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E37" s="14">
+        <v>45758</v>
+      </c>
+      <c r="F37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:7">
+      <c r="A38" s="12">
+        <v>991</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:4">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:4">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" s="3" t="s">
+      <c r="C38" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E38" s="14">
+        <v>45758</v>
+      </c>
+      <c r="F38" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" ht="18" customHeight="1" spans="1:4">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:4">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="G38" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:7">
+      <c r="A39" s="12">
+        <v>856</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" ht="18" customHeight="1" spans="1:4">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" ht="18" customHeight="1" spans="1:4">
-      <c r="A34" s="2">
-        <v>33</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="4" t="s">
-        <v>55</v>
+      <c r="E39" s="14">
+        <v>45758</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:7">
+      <c r="A40" s="15">
+        <v>965</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:7">
+      <c r="A41" s="15">
+        <v>1037</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:7">
+      <c r="A42" s="15">
+        <v>1038</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:7">
+      <c r="A43" s="15">
+        <v>1041</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E43" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:7">
+      <c r="A44" s="15">
+        <v>959</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E44" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:7">
+      <c r="A45" s="15">
+        <v>953</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E45" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:7">
+      <c r="A46" s="15">
+        <v>968</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E46" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:7">
+      <c r="A47" s="15">
+        <v>1019</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:7">
+      <c r="A48" s="15">
+        <v>963</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E48" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:7">
+      <c r="A49" s="15">
+        <v>970</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:7">
+      <c r="A50" s="15">
+        <v>1043</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:7">
+      <c r="A51" s="15">
+        <v>1042</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:7">
+      <c r="A52" s="15">
+        <v>1028</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E52" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:7">
+      <c r="A53" s="15">
+        <v>1029</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E53" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:7">
+      <c r="A54" s="15">
+        <v>1030</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E54" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:7">
+      <c r="A55" s="15">
+        <v>1031</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E55" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:7">
+      <c r="A56" s="15">
+        <v>1032</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:7">
+      <c r="A57" s="15">
+        <v>1034</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E57" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:7">
+      <c r="A58" s="15">
+        <v>1039</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:7">
+      <c r="A59" s="15">
+        <v>1040</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:7">
+      <c r="A60" s="15">
+        <v>1044</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E60" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="61" customHeight="1" spans="1:7">
+      <c r="A61" s="15">
+        <v>1045</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E61" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:7">
+      <c r="A62" s="15">
+        <v>1046</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E62" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:7">
+      <c r="A63" s="15">
+        <v>1047</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:7">
+      <c r="A64" s="15">
+        <v>1048</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E64" s="17">
+        <v>45758</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:7">
+      <c r="A65" s="18">
+        <v>654</v>
+      </c>
+      <c r="B65" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="D65" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E65" s="20">
+        <v>45758</v>
+      </c>
+      <c r="F65" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G65" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:7">
+      <c r="A66" s="18">
+        <v>908</v>
+      </c>
+      <c r="B66" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="D66" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" s="20">
+        <v>45758</v>
+      </c>
+      <c r="F66" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G66" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:7">
+      <c r="A67" s="18">
+        <v>909</v>
+      </c>
+      <c r="B67" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D67" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="20">
+        <v>45758</v>
+      </c>
+      <c r="F67" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G67" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" customHeight="1" spans="1:7">
+      <c r="A68" s="18">
+        <v>910</v>
+      </c>
+      <c r="B68" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D68" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E68" s="20">
+        <v>45758</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G68" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:7">
+      <c r="A69" s="18">
+        <v>911</v>
+      </c>
+      <c r="B69" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="20">
+        <v>45758</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:7">
+      <c r="A70" s="18">
+        <v>913</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="20">
+        <v>45758</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:7">
+      <c r="A71" s="18">
+        <v>919</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E71" s="20">
+        <v>45758</v>
+      </c>
+      <c r="F71" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:7">
+      <c r="A72" s="18">
+        <v>992</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="E72" s="20">
+        <v>45758</v>
+      </c>
+      <c r="F72" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G72" s="18" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/client/文件上传模版/周目标更新模版.xlsx
+++ b/client/文件上传模版/周目标更新模版.xlsx
@@ -1452,8 +1452,8 @@
   </sheetPr>
   <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G72"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K47" sqref="K47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" outlineLevelCol="6"/>
